--- a/biology/Médecine/Léproserie_d'Itapuã/Léproserie_d'Itapuã.xlsx
+++ b/biology/Médecine/Léproserie_d'Itapuã/Léproserie_d'Itapuã.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_d%27Itapu%C3%A3</t>
+          <t>Léproserie_d'Itapuã</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de la Léproserie d'Itapuã, ouvert le 11 mai 1940, est situé sur une aire de 1251 ha, à 58 km de Porto Alegre, sur le territoire de la municipalité de Viamão. C'était le principal centre de soins de la lèpre de l'État du Rio Grande do Sul, qui a reçu, au cours de son histoire, 1 454 patients originaires de tout l'État. Sa construction répondait à la politique de l'époque au Brésil qui consistait à isoler les personnes atteintes de maladies contagieuses telles que la lèpre ou la tuberculose.
 Les progrès dans le traitement de la lèpre, dans les années 60, mirent fin aux internements forcés et permirent la sortie de nombreux malades qui purent dès lors retourner dans leurs familles ou s'installer dans des lieux où ils ne seraient pas reconnus comme d'ex-lépreux. Plusieurs personnes revinrent cependant à l'hôpital du fait de leur incapacité à se réinsérer dans la société, après tant d'années d'isolement, ce qui maintint un peuplement particulier sur la zone.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_d%27Itapu%C3%A3</t>
+          <t>Léproserie_d'Itapuã</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(pt) Segregar para curar? A experiência do Hospital Colônia Itapuã.
  Portail de la médecine   Portail du Rio Grande do Sul                    </t>
